--- a/Data/VmiCustomers.xlsx
+++ b/Data/VmiCustomers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\֍  ELUX™  ֍\Documents\GitHub\warehouse_inventory_optimization\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD42024-8E51-44C1-9DFA-51B8AA53D88A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2AC8A9-AB85-42D4-9D4C-4A63E0FD122F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27955368-BC35-435D-9734-B43A316083CD}"/>
   </bookViews>
@@ -44,43 +44,43 @@
     <t>PLANT02</t>
   </si>
   <si>
-    <t>V5555555555555_16</t>
-  </si>
-  <si>
-    <t>V555555555555555_29</t>
-  </si>
-  <si>
-    <t>V555555555_3</t>
-  </si>
-  <si>
-    <t>V55555555555555_8</t>
-  </si>
-  <si>
-    <t>V55555555_9</t>
-  </si>
-  <si>
-    <t>V55555_10</t>
-  </si>
-  <si>
-    <t>V55555555_5</t>
-  </si>
-  <si>
     <t>PLANT06</t>
   </si>
   <si>
-    <t>V555555555555555_18</t>
-  </si>
-  <si>
     <t>PLANT10</t>
   </si>
   <si>
-    <t>V555555_34</t>
-  </si>
-  <si>
-    <t>V5555555555555555555_54</t>
-  </si>
-  <si>
     <t>PLANT11</t>
+  </si>
+  <si>
+    <t>C_10</t>
+  </si>
+  <si>
+    <t>C_3</t>
+  </si>
+  <si>
+    <t>C_16</t>
+  </si>
+  <si>
+    <t>C_29</t>
+  </si>
+  <si>
+    <t>C_18</t>
+  </si>
+  <si>
+    <t>C_54</t>
+  </si>
+  <si>
+    <t>C_8</t>
+  </si>
+  <si>
+    <t>C_9</t>
+  </si>
+  <si>
+    <t>C_5</t>
+  </si>
+  <si>
+    <t>C_34</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1589E1BC-B5BC-4421-BB5A-B1C5B94BD9CB}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,66 +505,67 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B15" xr:uid="{398A354B-E660-48CF-86D0-D55363BF7F9B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>